--- a/excel-execution/uploads/Quan_ly_cap_phat_tai_nguyen_v2.xlsx
+++ b/excel-execution/uploads/Quan_ly_cap_phat_tai_nguyen_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94D98C64-C687-4398-A3B1-4CE79970ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B91E9E-DC4C-4862-AD70-8CB396E9A2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{48583C00-C4BB-4EF5-817E-963E7A3CB1AA}"/>
   </bookViews>
@@ -55,12 +55,6 @@
     <t>Đầu mối xử lý</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Thời điểm đẩy y/c</t>
-  </si>
-  <si>
     <t>Thời gian hoàn thành theo KPI</t>
   </si>
   <si>
@@ -1649,6 +1643,12 @@
   </si>
   <si>
     <t>4TB Archiving</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Thời điểm đẩy yêu cầu</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2029,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,25 +2066,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2092,19 +2092,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>45658.375</v>
@@ -2119,10 +2119,10 @@
         <v>45748.625</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2130,19 +2130,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>45689.604166666664</v>
@@ -2154,10 +2154,10 @@
         <v>45717.416666666664</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2165,19 +2165,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>45717.416666666664</v>
@@ -2192,10 +2192,10 @@
         <v>45809.666666666664</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2203,19 +2203,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G5" s="2">
         <v>45748.666666666664</v>
@@ -2224,10 +2224,10 @@
         <v>45870.708333333336</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2235,19 +2235,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2">
         <v>45778.458333333336</v>
@@ -2262,10 +2262,10 @@
         <v>45870.375</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2273,19 +2273,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G7" s="2">
         <v>45809.395833333336</v>
@@ -2294,10 +2294,10 @@
         <v>45931.708333333336</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2305,19 +2305,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2">
         <v>45839.583333333336</v>
@@ -2332,10 +2332,10 @@
         <v>45931.541666666664</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2343,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2">
         <v>45870.354166666664</v>
@@ -2364,16 +2364,16 @@
         <v>45992.708333333336</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2">
         <v>45962.583333333336</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2381,34 +2381,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2">
         <v>45901.625</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2">
         <v>45962.666666666664</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2416,37 +2416,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2">
         <v>45931.416666666664</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2454,31 +2454,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2">
         <v>45962.479166666664</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2486,37 +2486,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2">
         <v>45992.541666666664</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2524,34 +2524,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2559,37 +2559,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2597,31 +2597,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2629,37 +2629,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2667,34 +2667,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2702,37 +2702,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2740,31 +2740,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2772,37 +2772,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2810,37 +2810,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2848,34 +2848,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2883,37 +2883,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2921,31 +2921,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2953,37 +2953,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2991,37 +2991,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3029,34 +3029,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3064,31 +3064,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H29" s="2">
         <v>45659.708333333336</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3096,22 +3096,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H30" s="2">
         <v>45690.708333333336</v>
@@ -3123,10 +3123,10 @@
         <v>45659.583333333336</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3134,22 +3134,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H31" s="2">
         <v>45718.708333333336</v>
@@ -3161,10 +3161,10 @@
         <v>45690.625</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3172,19 +3172,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G32" s="2">
         <v>45659.375</v>
@@ -3196,10 +3196,10 @@
         <v>45718.416666666664</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3207,19 +3207,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2">
         <v>45690.416666666664</v>
@@ -3234,10 +3234,10 @@
         <v>45779.541666666664</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3245,19 +3245,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G34" s="2">
         <v>45718.479166666664</v>
@@ -3266,10 +3266,10 @@
         <v>45840.708333333336</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3277,19 +3277,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2">
         <v>45749.541666666664</v>
@@ -3304,10 +3304,10 @@
         <v>45840.416666666664</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3315,19 +3315,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" s="2">
         <v>45779.583333333336</v>
@@ -3342,10 +3342,10 @@
         <v>45871.583333333336</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3353,19 +3353,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2">
         <v>45810.625</v>
@@ -3377,10 +3377,10 @@
         <v>45902.666666666664</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3388,19 +3388,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" s="2">
         <v>45840.395833333336</v>
@@ -3415,10 +3415,10 @@
         <v>45932.375</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3426,19 +3426,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39" s="2">
         <v>45871.416666666664</v>
@@ -3447,10 +3447,10 @@
         <v>45993.708333333336</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3458,37 +3458,37 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2">
         <v>45902.458333333336</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J40" s="2">
         <v>45993.5</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3496,34 +3496,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G41" s="2">
         <v>45932.520833333336</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3531,37 +3531,37 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G42" s="2">
         <v>45963.541666666664</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3569,31 +3569,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G43" s="2">
         <v>45993.583333333336</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3601,37 +3601,37 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="J44" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3639,37 +3639,37 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="L45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3677,31 +3677,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3709,37 +3709,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3747,34 +3747,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3782,37 +3782,37 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3820,31 +3820,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3852,37 +3852,37 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3919,34 +3919,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3954,22 +3954,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H2" s="2">
         <v>45809.458333333336</v>
@@ -3981,7 +3981,7 @@
         <v>45901.625</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3989,22 +3989,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="H3" s="2">
         <v>45839.416666666664</v>
@@ -4013,7 +4013,7 @@
         <v>45962.708333333336</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4021,22 +4021,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="H4" s="2">
         <v>45870.583333333336</v>
@@ -4048,7 +4048,7 @@
         <v>45962.666666666664</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4056,34 +4056,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="H5" s="2">
         <v>45931.479166666664</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4091,31 +4091,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="H6" s="2">
         <v>45962.395833333336</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4123,34 +4123,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H7" s="2">
         <v>45992.625</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4158,34 +4158,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4193,31 +4193,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4225,34 +4225,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4260,34 +4260,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4295,31 +4295,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4327,34 +4327,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4362,31 +4362,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4394,34 +4394,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4429,34 +4429,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4464,34 +4464,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4499,34 +4499,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4534,34 +4534,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4569,31 +4569,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4601,34 +4601,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I21" s="2">
         <v>45659.708333333336</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -4636,31 +4636,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="I22" s="2">
         <v>45690.708333333336</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4668,25 +4668,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I23" s="2">
         <v>45718.708333333336</v>
@@ -4695,7 +4695,7 @@
         <v>45690.416666666664</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4703,25 +4703,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I24" s="2">
         <v>45749.708333333336</v>
@@ -4730,7 +4730,7 @@
         <v>45718.541666666664</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4738,22 +4738,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H25" s="2">
         <v>45659.666666666664</v>
@@ -4762,7 +4762,7 @@
         <v>45779.708333333336</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -4770,22 +4770,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H26" s="2">
         <v>45718.375</v>
@@ -4797,7 +4797,7 @@
         <v>45810.583333333336</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4805,22 +4805,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H27" s="2">
         <v>45749.4375</v>
@@ -4832,7 +4832,7 @@
         <v>45840.625</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4840,22 +4840,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H28" s="2">
         <v>45779.416666666664</v>
@@ -4864,7 +4864,7 @@
         <v>45902.708333333336</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4872,22 +4872,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H29" s="2">
         <v>45840.541666666664</v>
@@ -4899,7 +4899,7 @@
         <v>45932.583333333336</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4907,22 +4907,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H30" s="2">
         <v>45871.479166666664</v>
@@ -4931,7 +4931,7 @@
         <v>45993.708333333336</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -4939,34 +4939,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H31" s="2">
         <v>45902.458333333336</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J31" s="2">
         <v>45993.416666666664</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -4974,34 +4974,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H32" s="2">
         <v>45932.625</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5009,31 +5009,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H33" s="2">
         <v>45963.666666666664</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -5041,34 +5041,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H34" s="2">
         <v>45993.416666666664</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5076,34 +5076,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -5111,31 +5111,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F36" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5143,34 +5143,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F37" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="K37" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5178,31 +5178,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F38" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5210,34 +5210,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F39" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="K39" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -5245,34 +5245,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5280,34 +5280,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F41" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="K41" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5315,31 +5315,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F42" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="K42" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -5347,34 +5347,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F43" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="K43" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5382,31 +5382,31 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F44" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="K44" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5414,34 +5414,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I45" s="2">
         <v>45660.708333333336</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -5449,22 +5449,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H46" s="2">
         <v>45660.416666666664</v>
@@ -5476,7 +5476,7 @@
         <v>45750.458333333336</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -5484,22 +5484,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="H47" s="2">
         <v>45691.583333333336</v>
@@ -5508,7 +5508,7 @@
         <v>45811.708333333336</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -5516,22 +5516,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="H48" s="2">
         <v>45719.395833333336</v>
@@ -5543,7 +5543,7 @@
         <v>45811.625</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -5551,22 +5551,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H49" s="2">
         <v>45750.458333333336</v>
@@ -5578,7 +5578,7 @@
         <v>45841.416666666664</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -5586,22 +5586,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="H50" s="2">
         <v>45780.541666666664</v>
@@ -5610,7 +5610,7 @@
         <v>45903.708333333336</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -5618,22 +5618,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H51" s="2">
         <v>45811.604166666664</v>
@@ -5645,7 +5645,7 @@
         <v>45903.666666666664</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5684,61 +5684,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -5746,22 +5746,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
@@ -5794,13 +5794,13 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -5808,22 +5808,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -5856,13 +5856,13 @@
         <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -5870,22 +5870,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H4" s="1">
         <v>10</v>
@@ -5918,13 +5918,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -5932,22 +5932,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -5980,13 +5980,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -5994,22 +5994,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
@@ -6042,13 +6042,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -6056,22 +6056,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -6118,22 +6118,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -6166,13 +6166,13 @@
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -6180,22 +6180,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -6228,13 +6228,13 @@
         <v>5000</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -6242,22 +6242,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -6290,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -6304,22 +6304,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -6352,13 +6352,13 @@
         <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -6366,22 +6366,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -6414,13 +6414,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -6428,22 +6428,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -6476,13 +6476,13 @@
         <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -6490,22 +6490,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
@@ -6538,13 +6538,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -6552,22 +6552,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -6600,13 +6600,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -6614,22 +6614,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
@@ -6662,13 +6662,13 @@
         <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -6676,22 +6676,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -6724,13 +6724,13 @@
         <v>0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -6738,22 +6738,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
@@ -6786,13 +6786,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -6800,22 +6800,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -6848,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -6862,22 +6862,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H20" s="1">
         <v>5</v>
@@ -6910,13 +6910,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -6924,22 +6924,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -6972,13 +6972,13 @@
         <v>0</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -6986,22 +6986,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -7034,13 +7034,13 @@
         <v>10000</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -7048,22 +7048,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H23" s="1">
         <v>3</v>
@@ -7096,13 +7096,13 @@
         <v>0</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -7110,22 +7110,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H24" s="1">
         <v>3</v>
@@ -7158,13 +7158,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -7172,22 +7172,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -7220,13 +7220,13 @@
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -7234,22 +7234,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H26" s="1">
         <v>4</v>
@@ -7282,13 +7282,13 @@
         <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -7296,22 +7296,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -7344,13 +7344,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -7358,22 +7358,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -7406,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -7420,22 +7420,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H29" s="1">
         <v>4</v>
@@ -7468,13 +7468,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -7482,22 +7482,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H30" s="1">
         <v>15</v>
@@ -7530,13 +7530,13 @@
         <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -7544,22 +7544,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -7592,36 +7592,36 @@
         <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         <v>0</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -7668,22 +7668,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H33" s="1">
         <v>5</v>
@@ -7716,13 +7716,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -7730,22 +7730,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H34" s="1">
         <v>2</v>
@@ -7778,13 +7778,13 @@
         <v>0</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -7792,22 +7792,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H35" s="1">
         <v>2</v>
@@ -7840,13 +7840,13 @@
         <v>0</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -7854,22 +7854,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -7902,13 +7902,13 @@
         <v>0</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -7916,22 +7916,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -7964,13 +7964,13 @@
         <v>0</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -7978,22 +7978,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H38" s="1">
         <v>3</v>
@@ -8026,13 +8026,13 @@
         <v>0</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -8040,22 +8040,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H39" s="1">
         <v>2</v>
@@ -8088,13 +8088,13 @@
         <v>0</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -8102,22 +8102,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -8150,13 +8150,13 @@
         <v>0</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -8164,22 +8164,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -8212,13 +8212,13 @@
         <v>0</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -8226,22 +8226,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -8274,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -8288,22 +8288,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
@@ -8336,13 +8336,13 @@
         <v>0</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -8350,22 +8350,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -8398,13 +8398,13 @@
         <v>0</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -8412,22 +8412,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H45" s="1">
         <v>3</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -8474,22 +8474,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -8522,13 +8522,13 @@
         <v>0</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -8536,22 +8536,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H47" s="1">
         <v>2</v>
@@ -8584,13 +8584,13 @@
         <v>0</v>
       </c>
       <c r="R47" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="T47" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -8598,22 +8598,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H48" s="1">
         <v>8</v>
@@ -8646,13 +8646,13 @@
         <v>0</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -8660,22 +8660,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H49" s="1">
         <v>3</v>
@@ -8708,13 +8708,13 @@
         <v>0</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -8722,22 +8722,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H50" s="1">
         <v>4</v>
@@ -8770,13 +8770,13 @@
         <v>0</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -8784,22 +8784,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -8832,13 +8832,13 @@
         <v>0</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/excel-execution/uploads/Quan_ly_cap_phat_tai_nguyen_v2.xlsx
+++ b/excel-execution/uploads/Quan_ly_cap_phat_tai_nguyen_v2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B91E9E-DC4C-4862-AD70-8CB396E9A2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF3C60-515E-4F3E-8882-5D08F5229A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{48583C00-C4BB-4EF5-817E-963E7A3CB1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sizing" sheetId="1" r:id="rId1"/>
-    <sheet name="Cấp phát tài nguyên" sheetId="2" r:id="rId2"/>
+    <sheet name="Cấp phát TN" sheetId="2" r:id="rId2"/>
     <sheet name="Chi tiết" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2029,7 +2029,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3895,7 +3895,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
